--- a/Estadísticas Regionales/estadísticas-regionales-nuevo.xlsx
+++ b/Estadísticas Regionales/estadísticas-regionales-nuevo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFCF046-58FF-4127-B85F-CECCD146E496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A18869-5DEE-48C2-BC97-B1798F68D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="254">
   <si>
     <t>Código región</t>
   </si>
@@ -576,9 +576,6 @@
     <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/distribucion-energia-electrica/distribucion_energ%C3%ADa_2005_a_la_fecha-(1).xls?sfvrsn=d7d8b46a_9</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica.xlsx?sfvrsn=98bad175_8</t>
-  </si>
-  <si>
     <t>GWh</t>
   </si>
   <si>
@@ -618,27 +615,12 @@
     <t>Distribución: Residencial, Comercial (falta), Agricola, Industrial, Varios.</t>
   </si>
   <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/generaci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica.xlsx?sfvrsn=3aa3939c_8</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/generaci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-hidr%C3%A1ulica.xlsx?sfvrsn=6ee08edc_8</t>
-  </si>
-  <si>
-    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/generaci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-t%C3%A9rmica.xlsx?sfvrsn=14952cbb_10</t>
-  </si>
-  <si>
     <t>https://regiones.ine.cl/documentos/default-source/region-ii/estadistica/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/generacion-energia-electrica/generacion_energ%C3%ADa_2005_a_la_fecha-(1).xls?sfvrsn=19916454_8</t>
   </si>
   <si>
     <t>https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10</t>
   </si>
   <si>
-    <t>https://www.ine.cl/docs/default-source/mineria/cuadros-estadisticos/base-promedio-2014-100/serie-empalmada-y-mensual-a-julio-2021.xls?sfvrsn=ce9abdbf_5</t>
-  </si>
-  <si>
-    <t>https://www.ine.cl/docs/default-source/producci%C3%B3n-de-la-industria-manufacturera/cuadros-estadisticos/base-promedio-2014-100/serie-empalmada-y-mensual-a-julio-2021.xls?sfvrsn=e1fb7741_4</t>
-  </si>
-  <si>
     <t>https://regiones.ine.cl/documentos/default-source/region-viii/estadisticas/desembarque-pesquero/cuadros-estadisticos/series-mensuales/desembarque-total-por-grupos-de-especies.xlsx?sfvrsn=fd785c8a_8</t>
   </si>
   <si>
@@ -657,9 +639,6 @@
     <t>https://regiones.ine.cl/documentos/default-source/region-xii/estadisticas-r12/estadisticas-de-transporte-y-comunicaciones/transporte/2_4_1-04.xls?sfvrsn=c092793d_24</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
     <t>5.2.7</t>
   </si>
   <si>
@@ -790,6 +769,21 @@
   </si>
   <si>
     <t>Biobio</t>
+  </si>
+  <si>
+    <t>https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8</t>
+  </si>
+  <si>
+    <t>Estos tienen el mismo link</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/docs/default-source/mineria/cuadros-estadisticos/base-promedio-2014-100/serie-empalmada-y-mensual-a-agosto-2021.xls?sfvrsn=d1744382_4</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/docs/default-source/producci%C3%B3n-de-la-industria-manufacturera/cuadros-estadisticos/base-promedio-2014-100/serie-empalmada-y-mensual-a-agosto-2021.xls?sfvrsn=17205fbe_4</t>
+  </si>
+  <si>
+    <t>Observación</t>
   </si>
 </sst>
 </file>
@@ -869,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -880,6 +874,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -910,7 +908,7 @@
     <tableColumn id="2" xr3:uid="{0A364E59-C27B-4E55-8E44-3304725999D3}" name="Nombre"/>
     <tableColumn id="3" xr3:uid="{178D1046-8C04-4B5D-9F23-BBDEC7801E8A}" name="Región"/>
     <tableColumn id="4" xr3:uid="{D00B6CEA-6CB7-44EB-B616-76D76F07139E}" name="Link" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{39FBA799-C5F9-4ED2-A3BE-562CBACC9D2F}" name="Columna1"/>
+    <tableColumn id="5" xr3:uid="{39FBA799-C5F9-4ED2-A3BE-562CBACC9D2F}" name="Observación"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,9 +1201,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99386C40-B660-48FF-97CE-409BFD61ED96}">
   <dimension ref="A1:CU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -3305,10 +3308,10 @@
         <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J8">
         <v>94.887</v>
@@ -3604,10 +3607,10 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J9">
         <v>53.103999999999999</v>
@@ -3903,10 +3906,10 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J10">
         <v>4.0000000000000001E-3</v>
@@ -4202,10 +4205,10 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J11">
         <v>8.7059999999999995</v>
@@ -4501,10 +4504,10 @@
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J12">
         <v>392.79399999999998</v>
@@ -4800,10 +4803,10 @@
         <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J13">
         <v>73.066000000000003</v>
@@ -7180,10 +7183,10 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
@@ -7192,7 +7195,7 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J21">
         <v>52215</v>
@@ -8364,10 +8367,10 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -8376,7 +8379,7 @@
         <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
@@ -11075,10 +11078,10 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" t="s">
         <v>64</v>
@@ -11087,7 +11090,7 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J44">
         <v>227.02500000000003</v>
@@ -11371,10 +11374,10 @@
         <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" t="s">
         <v>64</v>
@@ -11383,7 +11386,7 @@
         <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J45">
         <v>3.62</v>
@@ -11667,10 +11670,10 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" t="s">
         <v>64</v>
@@ -11679,7 +11682,7 @@
         <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J46">
         <v>36.266999999999996</v>
@@ -11963,10 +11966,10 @@
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G47" t="s">
         <v>64</v>
@@ -11975,7 +11978,7 @@
         <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J47">
         <v>0.69000000000000006</v>
@@ -12259,10 +12262,10 @@
         <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G48" t="s">
         <v>64</v>
@@ -12271,7 +12274,7 @@
         <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J48">
         <v>123.2</v>
@@ -12555,10 +12558,10 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G49" t="s">
         <v>64</v>
@@ -12567,7 +12570,7 @@
         <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J49">
         <v>13133</v>
@@ -12848,10 +12851,10 @@
         <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" t="s">
         <v>64</v>
@@ -12860,7 +12863,7 @@
         <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J50">
         <v>358</v>
@@ -13141,10 +13144,10 @@
         <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" t="s">
         <v>64</v>
@@ -13153,7 +13156,7 @@
         <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J51">
         <v>24922</v>
@@ -13434,10 +13437,10 @@
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52" t="s">
         <v>64</v>
@@ -13446,7 +13449,7 @@
         <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J52">
         <v>66390</v>
@@ -13727,10 +13730,10 @@
         <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G53" t="s">
         <v>64</v>
@@ -13739,7 +13742,7 @@
         <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J53">
         <v>68</v>
@@ -14020,10 +14023,10 @@
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
         <v>64</v>
@@ -14032,7 +14035,7 @@
         <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AT54">
         <v>3575.1959999999995</v>
@@ -14211,10 +14214,10 @@
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55" t="s">
         <v>64</v>
@@ -14223,7 +14226,7 @@
         <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AT55">
         <v>20970.175999999999</v>
@@ -14402,10 +14405,10 @@
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G56" t="s">
         <v>64</v>
@@ -14414,7 +14417,7 @@
         <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AT56">
         <v>7944.598</v>
@@ -14593,10 +14596,10 @@
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G57" t="s">
         <v>64</v>
@@ -14605,7 +14608,7 @@
         <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AT57">
         <v>355.39699999999993</v>
@@ -14784,10 +14787,10 @@
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G58" t="s">
         <v>64</v>
@@ -14796,7 +14799,7 @@
         <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AT58">
         <v>31.252999999999997</v>
@@ -14978,7 +14981,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -14987,7 +14990,7 @@
         <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AT59">
         <v>6.5</v>
@@ -15360,7 +15363,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G61" t="s">
         <v>64</v>
@@ -15369,7 +15372,7 @@
         <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AT61">
         <v>0.57099999999999973</v>
@@ -16116,189 +16119,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F5C55-E20C-404A-B8DF-996C2C4EB8D0}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="137.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.140625" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
+        <v>249</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>249</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>249</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>200</v>
+        <v>249</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
         <v>233</v>
       </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>255</v>
+        <v>238</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -16306,13 +16322,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -16320,27 +16336,27 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C14" t="s">
-        <v>255</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -16348,13 +16364,13 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -16362,67 +16378,65 @@
         <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="https://regiones.ine.cl/documentos/default-source/region-ix/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/cifras-mensuales/generaci%C3%B3n-y-distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-seg%C3%BAn-sector-econ%C3%B3mico.xls?sfvrsn=8e2e04bf_10" xr:uid="{0EA1FCB3-56A9-4A67-BCCB-955C8298BA0D}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{E036FD80-A151-4DEC-958B-6AC4E69F104C}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{38CD7E3D-014C-40DA-8C4B-714B71F41CE1}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{BF218C9A-CB39-4169-81D0-715542F69C73}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{7718EBA8-A8EC-4B30-BA47-CA8C43368C78}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{D828AFF8-08D5-421F-9B1E-2CC7F4922F6A}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{CDEE5F13-7EBF-497E-A401-20E58E21E041}"/>
-    <hyperlink ref="D8" r:id="rId8" display="https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls?sfvrsn=e4ee2a5f_8" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{0E1DBE6F-6A9F-4505-BFA5-39048F8D8344}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{785C0658-A570-4448-97C1-F80C11E071F3}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{0CA6B9D0-A2F9-4E80-BFBB-59F32E98F0C5}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{8B11536A-25BB-4C05-AD95-496321E3C38C}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{B469F178-AD3A-4B4E-B4DA-3E2CD2D06557}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{BB2336EE-5C0B-4716-A2F3-FD22FCD40E9C}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{548030B2-C844-4078-8F39-EBC9F0137A23}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{6B4D0E2B-9B1D-4A21-BF78-82DBD511BAF3}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{AC7A4CC6-1B04-495F-B305-654A8A731545}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{D828AFF8-08D5-421F-9B1E-2CC7F4922F6A}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{CDEE5F13-7EBF-497E-A401-20E58E21E041}"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://regiones.ine.cl/documentos/default-source/region-iii/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/distribuci%C3%B3n-de-energ%C3%ADa-el%C3%A9ctrica-sector-miner%C3%ADa-y-otros-destinos.xls?sfvrsn=e4ee2a5f_8" xr:uid="{5462A8D7-E9E0-4F8F-A39F-1F9F562CB814}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{0E1DBE6F-6A9F-4505-BFA5-39048F8D8344}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{8B11536A-25BB-4C05-AD95-496321E3C38C}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{B469F178-AD3A-4B4E-B4DA-3E2CD2D06557}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{BB2336EE-5C0B-4716-A2F3-FD22FCD40E9C}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{548030B2-C844-4078-8F39-EBC9F0137A23}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{6B4D0E2B-9B1D-4A21-BF78-82DBD511BAF3}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{AC7A4CC6-1B04-495F-B305-654A8A731545}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{172A1560-D1F3-494B-83A2-15312FD2FD45}"/>
+    <hyperlink ref="D2:D5" r:id="rId13" display="https://regiones.ine.cl/documentos/default-source/region-xv/estadisticas/generacion-y-distribucion-de-energia-electrica/cuadros-estadisticos/series-mensuales/series-mensuales-desde-2015-a-la-fecha.xlsx?sfvrsn=c19505b2_8" xr:uid="{3DCC711C-367F-4611-BB4A-60624EA47284}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{8893FCDF-5FD9-4524-849C-4B3FB24CD76C}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{96E20AFE-DFC5-4389-AED6-40E0B724F3F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>